--- a/output/out_BW Specific Fault Layout Toyopuc V9.xlsx
+++ b/output/out_BW Specific Fault Layout Toyopuc V9.xlsx
@@ -763,6 +763,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -771,15 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -71544,7 +71544,7 @@
       <c r="T306" s="24" t="n"/>
     </row>
     <row r="307" ht="14.4" customHeight="1">
-      <c r="A307" s="70" t="n"/>
+      <c r="A307" s="67" t="n"/>
       <c r="B307" s="88">
         <f>CONCATENATE(A307,A311,A315,A319)</f>
         <v/>
@@ -71553,7 +71553,7 @@
       <c r="D307" s="12" t="n"/>
       <c r="E307" s="12" t="n"/>
       <c r="F307" s="12" t="n"/>
-      <c r="H307" s="70" t="n"/>
+      <c r="H307" s="67" t="n"/>
       <c r="I307" s="88">
         <f>CONCATENATE(H307,H311,H315,H319)</f>
         <v/>
@@ -71562,8 +71562,8 @@
       <c r="K307" s="12" t="n"/>
       <c r="L307" s="12" t="n"/>
       <c r="M307" s="12" t="n"/>
-      <c r="O307" s="70" t="n"/>
-      <c r="P307" s="67" t="n"/>
+      <c r="O307" s="67" t="n"/>
+      <c r="P307" s="70" t="n"/>
       <c r="Q307" s="31" t="n"/>
       <c r="R307" s="12" t="n"/>
       <c r="S307" s="12" t="n"/>
@@ -71809,6 +71809,288 @@
     </row>
   </sheetData>
   <mergeCells count="306">
+    <mergeCell ref="P227:P242"/>
+    <mergeCell ref="P243:P258"/>
+    <mergeCell ref="P259:P274"/>
+    <mergeCell ref="P275:P290"/>
+    <mergeCell ref="P291:P306"/>
+    <mergeCell ref="P307:P322"/>
+    <mergeCell ref="P131:P146"/>
+    <mergeCell ref="P147:P162"/>
+    <mergeCell ref="P163:P178"/>
+    <mergeCell ref="P179:P194"/>
+    <mergeCell ref="P195:P210"/>
+    <mergeCell ref="P211:P226"/>
+    <mergeCell ref="I323:I338"/>
+    <mergeCell ref="P3:P18"/>
+    <mergeCell ref="P19:P34"/>
+    <mergeCell ref="P35:P50"/>
+    <mergeCell ref="P51:P66"/>
+    <mergeCell ref="P67:P82"/>
+    <mergeCell ref="P83:P98"/>
+    <mergeCell ref="P99:P114"/>
+    <mergeCell ref="P115:P130"/>
+    <mergeCell ref="I211:I226"/>
+    <mergeCell ref="I227:I242"/>
+    <mergeCell ref="I243:I258"/>
+    <mergeCell ref="I259:I274"/>
+    <mergeCell ref="I275:I290"/>
+    <mergeCell ref="I291:I306"/>
+    <mergeCell ref="I115:I130"/>
+    <mergeCell ref="I131:I146"/>
+    <mergeCell ref="I147:I162"/>
+    <mergeCell ref="I163:I178"/>
+    <mergeCell ref="I179:I194"/>
+    <mergeCell ref="I195:I210"/>
+    <mergeCell ref="I3:I18"/>
+    <mergeCell ref="I19:I34"/>
+    <mergeCell ref="P323:P338"/>
+    <mergeCell ref="I51:I66"/>
+    <mergeCell ref="I67:I82"/>
+    <mergeCell ref="I83:I98"/>
+    <mergeCell ref="I99:I114"/>
+    <mergeCell ref="B291:B306"/>
+    <mergeCell ref="B307:B322"/>
+    <mergeCell ref="B323:B338"/>
+    <mergeCell ref="B195:B210"/>
+    <mergeCell ref="B211:B226"/>
+    <mergeCell ref="B227:B242"/>
+    <mergeCell ref="B243:B258"/>
+    <mergeCell ref="B259:B274"/>
+    <mergeCell ref="B275:B290"/>
+    <mergeCell ref="B99:B114"/>
+    <mergeCell ref="B115:B130"/>
+    <mergeCell ref="B131:B146"/>
+    <mergeCell ref="B147:B162"/>
+    <mergeCell ref="B163:B178"/>
+    <mergeCell ref="B179:B194"/>
+    <mergeCell ref="H311:H314"/>
+    <mergeCell ref="H315:H318"/>
+    <mergeCell ref="H319:H322"/>
+    <mergeCell ref="H239:H242"/>
+    <mergeCell ref="I307:I322"/>
+    <mergeCell ref="B19:B34"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="O319:O322"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O295:O298"/>
+    <mergeCell ref="O299:O302"/>
+    <mergeCell ref="O303:O306"/>
+    <mergeCell ref="O307:O310"/>
+    <mergeCell ref="O311:O314"/>
+    <mergeCell ref="O315:O318"/>
+    <mergeCell ref="O271:O274"/>
+    <mergeCell ref="O275:O278"/>
+    <mergeCell ref="O279:O282"/>
+    <mergeCell ref="O283:O286"/>
+    <mergeCell ref="O287:O290"/>
+    <mergeCell ref="O291:O294"/>
+    <mergeCell ref="O247:O250"/>
+    <mergeCell ref="O251:O254"/>
+    <mergeCell ref="I35:I50"/>
+    <mergeCell ref="O255:O258"/>
+    <mergeCell ref="O259:O262"/>
+    <mergeCell ref="O263:O266"/>
+    <mergeCell ref="O267:O270"/>
+    <mergeCell ref="O223:O226"/>
+    <mergeCell ref="O227:O230"/>
+    <mergeCell ref="O231:O234"/>
+    <mergeCell ref="O235:O238"/>
+    <mergeCell ref="O239:O242"/>
+    <mergeCell ref="O243:O246"/>
+    <mergeCell ref="O199:O202"/>
+    <mergeCell ref="O203:O206"/>
+    <mergeCell ref="O207:O210"/>
+    <mergeCell ref="O211:O214"/>
+    <mergeCell ref="O215:O218"/>
+    <mergeCell ref="O219:O222"/>
+    <mergeCell ref="O175:O178"/>
+    <mergeCell ref="O179:O182"/>
+    <mergeCell ref="O183:O186"/>
+    <mergeCell ref="O187:O190"/>
+    <mergeCell ref="O191:O194"/>
+    <mergeCell ref="O195:O198"/>
+    <mergeCell ref="O151:O154"/>
+    <mergeCell ref="O155:O158"/>
+    <mergeCell ref="O159:O162"/>
+    <mergeCell ref="O163:O166"/>
+    <mergeCell ref="O167:O170"/>
+    <mergeCell ref="O171:O174"/>
+    <mergeCell ref="O127:O130"/>
+    <mergeCell ref="O131:O134"/>
+    <mergeCell ref="O135:O138"/>
+    <mergeCell ref="O139:O142"/>
+    <mergeCell ref="O143:O146"/>
+    <mergeCell ref="O147:O150"/>
+    <mergeCell ref="O103:O106"/>
+    <mergeCell ref="O107:O110"/>
+    <mergeCell ref="O111:O114"/>
+    <mergeCell ref="O115:O118"/>
+    <mergeCell ref="O119:O122"/>
+    <mergeCell ref="O123:O126"/>
+    <mergeCell ref="O79:O82"/>
+    <mergeCell ref="O83:O86"/>
+    <mergeCell ref="O87:O90"/>
+    <mergeCell ref="O91:O94"/>
+    <mergeCell ref="O95:O98"/>
+    <mergeCell ref="O99:O102"/>
+    <mergeCell ref="O55:O58"/>
+    <mergeCell ref="O59:O62"/>
+    <mergeCell ref="O63:O66"/>
+    <mergeCell ref="O67:O70"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="O75:O78"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="O43:O46"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="O51:O54"/>
+    <mergeCell ref="H251:H254"/>
+    <mergeCell ref="H255:H258"/>
+    <mergeCell ref="H259:H262"/>
+    <mergeCell ref="H263:H266"/>
+    <mergeCell ref="H267:H270"/>
+    <mergeCell ref="H271:H274"/>
+    <mergeCell ref="H227:H230"/>
+    <mergeCell ref="H231:H234"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="H243:H246"/>
+    <mergeCell ref="H247:H250"/>
+    <mergeCell ref="H299:H302"/>
+    <mergeCell ref="H303:H306"/>
+    <mergeCell ref="H307:H310"/>
+    <mergeCell ref="H275:H278"/>
+    <mergeCell ref="H279:H282"/>
+    <mergeCell ref="H283:H286"/>
+    <mergeCell ref="H287:H290"/>
+    <mergeCell ref="H291:H294"/>
+    <mergeCell ref="H295:H298"/>
+    <mergeCell ref="H203:H206"/>
+    <mergeCell ref="H207:H210"/>
+    <mergeCell ref="H211:H214"/>
+    <mergeCell ref="H215:H218"/>
+    <mergeCell ref="H219:H222"/>
+    <mergeCell ref="H223:H226"/>
+    <mergeCell ref="H179:H182"/>
+    <mergeCell ref="H183:H186"/>
+    <mergeCell ref="H187:H190"/>
+    <mergeCell ref="H191:H194"/>
+    <mergeCell ref="H195:H198"/>
+    <mergeCell ref="H199:H202"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="H159:H162"/>
+    <mergeCell ref="H163:H166"/>
+    <mergeCell ref="H167:H170"/>
+    <mergeCell ref="H171:H174"/>
+    <mergeCell ref="H175:H178"/>
+    <mergeCell ref="H131:H134"/>
+    <mergeCell ref="H135:H138"/>
+    <mergeCell ref="H139:H142"/>
+    <mergeCell ref="H143:H146"/>
+    <mergeCell ref="H147:H150"/>
+    <mergeCell ref="H151:H154"/>
+    <mergeCell ref="H107:H110"/>
+    <mergeCell ref="H111:H114"/>
+    <mergeCell ref="H115:H118"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="H123:H126"/>
+    <mergeCell ref="H127:H130"/>
+    <mergeCell ref="H83:H86"/>
+    <mergeCell ref="H87:H90"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="A251:A254"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="A267:A270"/>
+    <mergeCell ref="A271:A274"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A243:A246"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="A311:A314"/>
+    <mergeCell ref="A315:A318"/>
+    <mergeCell ref="A319:A322"/>
+    <mergeCell ref="A275:A278"/>
+    <mergeCell ref="A279:A282"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="A287:A290"/>
+    <mergeCell ref="A291:A294"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="A303:A306"/>
+    <mergeCell ref="A307:A310"/>
+    <mergeCell ref="A215:A218"/>
+    <mergeCell ref="A219:A222"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A195:A198"/>
+    <mergeCell ref="A199:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A207:A210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="A167:A170"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="A175:A178"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="A151:A154"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
     <mergeCell ref="O3:O6"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
@@ -71833,288 +72115,6 @@
     <mergeCell ref="O23:O26"/>
     <mergeCell ref="O27:O30"/>
     <mergeCell ref="B3:B18"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A167:A170"/>
-    <mergeCell ref="A171:A174"/>
-    <mergeCell ref="A175:A178"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A150"/>
-    <mergeCell ref="A151:A154"/>
-    <mergeCell ref="A215:A218"/>
-    <mergeCell ref="A219:A222"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="A187:A190"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A195:A198"/>
-    <mergeCell ref="A199:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A207:A210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="A311:A314"/>
-    <mergeCell ref="A315:A318"/>
-    <mergeCell ref="A319:A322"/>
-    <mergeCell ref="A275:A278"/>
-    <mergeCell ref="A279:A282"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="A287:A290"/>
-    <mergeCell ref="A291:A294"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="A303:A306"/>
-    <mergeCell ref="A307:A310"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="A267:A270"/>
-    <mergeCell ref="A271:A274"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A239:A242"/>
-    <mergeCell ref="A243:A246"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="H79:H82"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="H107:H110"/>
-    <mergeCell ref="H111:H114"/>
-    <mergeCell ref="H115:H118"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="H123:H126"/>
-    <mergeCell ref="H127:H130"/>
-    <mergeCell ref="H83:H86"/>
-    <mergeCell ref="H87:H90"/>
-    <mergeCell ref="H91:H94"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="H103:H106"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="H159:H162"/>
-    <mergeCell ref="H163:H166"/>
-    <mergeCell ref="H167:H170"/>
-    <mergeCell ref="H171:H174"/>
-    <mergeCell ref="H175:H178"/>
-    <mergeCell ref="H131:H134"/>
-    <mergeCell ref="H135:H138"/>
-    <mergeCell ref="H139:H142"/>
-    <mergeCell ref="H143:H146"/>
-    <mergeCell ref="H147:H150"/>
-    <mergeCell ref="H151:H154"/>
-    <mergeCell ref="H203:H206"/>
-    <mergeCell ref="H207:H210"/>
-    <mergeCell ref="H211:H214"/>
-    <mergeCell ref="H215:H218"/>
-    <mergeCell ref="H219:H222"/>
-    <mergeCell ref="H223:H226"/>
-    <mergeCell ref="H179:H182"/>
-    <mergeCell ref="H183:H186"/>
-    <mergeCell ref="H187:H190"/>
-    <mergeCell ref="H191:H194"/>
-    <mergeCell ref="H195:H198"/>
-    <mergeCell ref="H199:H202"/>
-    <mergeCell ref="H299:H302"/>
-    <mergeCell ref="H303:H306"/>
-    <mergeCell ref="H307:H310"/>
-    <mergeCell ref="H275:H278"/>
-    <mergeCell ref="H279:H282"/>
-    <mergeCell ref="H283:H286"/>
-    <mergeCell ref="H287:H290"/>
-    <mergeCell ref="H291:H294"/>
-    <mergeCell ref="H295:H298"/>
-    <mergeCell ref="H251:H254"/>
-    <mergeCell ref="H255:H258"/>
-    <mergeCell ref="H259:H262"/>
-    <mergeCell ref="H263:H266"/>
-    <mergeCell ref="H267:H270"/>
-    <mergeCell ref="H271:H274"/>
-    <mergeCell ref="H227:H230"/>
-    <mergeCell ref="H231:H234"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="H243:H246"/>
-    <mergeCell ref="H247:H250"/>
-    <mergeCell ref="O55:O58"/>
-    <mergeCell ref="O59:O62"/>
-    <mergeCell ref="O63:O66"/>
-    <mergeCell ref="O67:O70"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="O75:O78"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="O35:O38"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="O43:O46"/>
-    <mergeCell ref="O47:O50"/>
-    <mergeCell ref="O51:O54"/>
-    <mergeCell ref="O103:O106"/>
-    <mergeCell ref="O107:O110"/>
-    <mergeCell ref="O111:O114"/>
-    <mergeCell ref="O115:O118"/>
-    <mergeCell ref="O119:O122"/>
-    <mergeCell ref="O123:O126"/>
-    <mergeCell ref="O79:O82"/>
-    <mergeCell ref="O83:O86"/>
-    <mergeCell ref="O87:O90"/>
-    <mergeCell ref="O91:O94"/>
-    <mergeCell ref="O95:O98"/>
-    <mergeCell ref="O99:O102"/>
-    <mergeCell ref="O151:O154"/>
-    <mergeCell ref="O155:O158"/>
-    <mergeCell ref="O159:O162"/>
-    <mergeCell ref="O163:O166"/>
-    <mergeCell ref="O167:O170"/>
-    <mergeCell ref="O171:O174"/>
-    <mergeCell ref="O127:O130"/>
-    <mergeCell ref="O131:O134"/>
-    <mergeCell ref="O135:O138"/>
-    <mergeCell ref="O139:O142"/>
-    <mergeCell ref="O143:O146"/>
-    <mergeCell ref="O147:O150"/>
-    <mergeCell ref="O199:O202"/>
-    <mergeCell ref="O203:O206"/>
-    <mergeCell ref="O207:O210"/>
-    <mergeCell ref="O211:O214"/>
-    <mergeCell ref="O215:O218"/>
-    <mergeCell ref="O219:O222"/>
-    <mergeCell ref="O175:O178"/>
-    <mergeCell ref="O179:O182"/>
-    <mergeCell ref="O183:O186"/>
-    <mergeCell ref="O187:O190"/>
-    <mergeCell ref="O191:O194"/>
-    <mergeCell ref="O195:O198"/>
-    <mergeCell ref="O255:O258"/>
-    <mergeCell ref="O259:O262"/>
-    <mergeCell ref="O263:O266"/>
-    <mergeCell ref="O267:O270"/>
-    <mergeCell ref="O223:O226"/>
-    <mergeCell ref="O227:O230"/>
-    <mergeCell ref="O231:O234"/>
-    <mergeCell ref="O235:O238"/>
-    <mergeCell ref="O239:O242"/>
-    <mergeCell ref="O243:O246"/>
-    <mergeCell ref="B19:B34"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="O319:O322"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O295:O298"/>
-    <mergeCell ref="O299:O302"/>
-    <mergeCell ref="O303:O306"/>
-    <mergeCell ref="O307:O310"/>
-    <mergeCell ref="O311:O314"/>
-    <mergeCell ref="O315:O318"/>
-    <mergeCell ref="O271:O274"/>
-    <mergeCell ref="O275:O278"/>
-    <mergeCell ref="O279:O282"/>
-    <mergeCell ref="O283:O286"/>
-    <mergeCell ref="O287:O290"/>
-    <mergeCell ref="O291:O294"/>
-    <mergeCell ref="O247:O250"/>
-    <mergeCell ref="O251:O254"/>
-    <mergeCell ref="I35:I50"/>
-    <mergeCell ref="I51:I66"/>
-    <mergeCell ref="I67:I82"/>
-    <mergeCell ref="I83:I98"/>
-    <mergeCell ref="I99:I114"/>
-    <mergeCell ref="B291:B306"/>
-    <mergeCell ref="B307:B322"/>
-    <mergeCell ref="B323:B338"/>
-    <mergeCell ref="B195:B210"/>
-    <mergeCell ref="B211:B226"/>
-    <mergeCell ref="B227:B242"/>
-    <mergeCell ref="B243:B258"/>
-    <mergeCell ref="B259:B274"/>
-    <mergeCell ref="B275:B290"/>
-    <mergeCell ref="B99:B114"/>
-    <mergeCell ref="B115:B130"/>
-    <mergeCell ref="B131:B146"/>
-    <mergeCell ref="B147:B162"/>
-    <mergeCell ref="B163:B178"/>
-    <mergeCell ref="B179:B194"/>
-    <mergeCell ref="H311:H314"/>
-    <mergeCell ref="H315:H318"/>
-    <mergeCell ref="H319:H322"/>
-    <mergeCell ref="H239:H242"/>
-    <mergeCell ref="I307:I322"/>
-    <mergeCell ref="I323:I338"/>
-    <mergeCell ref="P3:P18"/>
-    <mergeCell ref="P19:P34"/>
-    <mergeCell ref="P35:P50"/>
-    <mergeCell ref="P51:P66"/>
-    <mergeCell ref="P67:P82"/>
-    <mergeCell ref="P83:P98"/>
-    <mergeCell ref="P99:P114"/>
-    <mergeCell ref="P115:P130"/>
-    <mergeCell ref="I211:I226"/>
-    <mergeCell ref="I227:I242"/>
-    <mergeCell ref="I243:I258"/>
-    <mergeCell ref="I259:I274"/>
-    <mergeCell ref="I275:I290"/>
-    <mergeCell ref="I291:I306"/>
-    <mergeCell ref="I115:I130"/>
-    <mergeCell ref="I131:I146"/>
-    <mergeCell ref="I147:I162"/>
-    <mergeCell ref="I163:I178"/>
-    <mergeCell ref="I179:I194"/>
-    <mergeCell ref="I195:I210"/>
-    <mergeCell ref="I3:I18"/>
-    <mergeCell ref="I19:I34"/>
-    <mergeCell ref="P323:P338"/>
-    <mergeCell ref="P227:P242"/>
-    <mergeCell ref="P243:P258"/>
-    <mergeCell ref="P259:P274"/>
-    <mergeCell ref="P275:P290"/>
-    <mergeCell ref="P291:P306"/>
-    <mergeCell ref="P307:P322"/>
-    <mergeCell ref="P131:P146"/>
-    <mergeCell ref="P147:P162"/>
-    <mergeCell ref="P163:P178"/>
-    <mergeCell ref="P179:P194"/>
-    <mergeCell ref="P195:P210"/>
-    <mergeCell ref="P211:P226"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="17" scale="39" fitToHeight="0"/>
